--- a/CodeSystem-ncpi.xlsx
+++ b/CodeSystem-ncpi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-08T17:59:04+00:00</t>
+    <t>2022-04-08T17:59:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncpi.xlsx
+++ b/CodeSystem-ncpi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-08T17:59:36+00:00</t>
+    <t>2022-04-08T19:04:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncpi.xlsx
+++ b/CodeSystem-ncpi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-08T19:04:52+00:00</t>
+    <t>2022-04-08T19:05:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncpi.xlsx
+++ b/CodeSystem-ncpi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-08T19:05:18+00:00</t>
+    <t>2022-04-11T21:19:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncpi.xlsx
+++ b/CodeSystem-ncpi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T21:19:38+00:00</t>
+    <t>2022-04-11T21:19:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncpi.xlsx
+++ b/CodeSystem-ncpi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T21:19:53+00:00</t>
+    <t>2022-04-11T21:41:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncpi.xlsx
+++ b/CodeSystem-ncpi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T21:41:41+00:00</t>
+    <t>2022-04-11T21:49:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncpi.xlsx
+++ b/CodeSystem-ncpi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T21:49:34+00:00</t>
+    <t>2022-04-22T15:57:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncpi.xlsx
+++ b/CodeSystem-ncpi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T15:57:10+00:00</t>
+    <t>2022-04-22T15:57:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncpi.xlsx
+++ b/CodeSystem-ncpi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T15:57:32+00:00</t>
+    <t>2022-04-26T17:19:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncpi.xlsx
+++ b/CodeSystem-ncpi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-26T17:19:32+00:00</t>
+    <t>2022-04-26T17:20:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncpi.xlsx
+++ b/CodeSystem-ncpi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-26T17:20:41+00:00</t>
+    <t>2022-04-26T22:45:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncpi.xlsx
+++ b/CodeSystem-ncpi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-26T22:45:35+00:00</t>
+    <t>2022-04-26T22:45:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
